--- a/DataFilm.xlsx
+++ b/DataFilm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="243">
   <si>
     <t>Tên video</t>
   </si>
@@ -842,6 +842,166 @@
   </si>
   <si>
     <t>http://www.phimmoi.net/phim/tieu-thuyet-gia-8439/</t>
+  </si>
+  <si>
+    <t>Khủng Long đại chiến</t>
+  </si>
+  <si>
+    <t>Câu chuyện trong Tarbosaurus diễn ra ở thời điểm 80 triệu năm về 
+trước. Lúc ấy, loài khủng long thống trị lãnh thổ Hàn Quốc cũng hệt 
+như cách chúng tung hoành bên dưới mọi vùng trời còn lại của thế 
+giới. Một phần lãnh địa khủng long mà bây giờ được biết đến dưới 
+cái tên Jeonnam Yeosu là rừng “nhà” của giống loài đặc chủng: 
+Tarbosaurus. Nhóc nhỏ tuổi nhất trong gia tộc Tarbosaurus là Đốm , 
+một đứa trẻ hiếu động và rất tò mò. Cùng với mẹ và cặp sinh đôi, 
+cậu bé sống hạnh phúc trong khu rừng, nhẫn nại học cách đi săn...</t>
+  </si>
+  <si>
+    <t>http://www.phimmoi.net/phim/khung-long-dai-chien-65/</t>
+  </si>
+  <si>
+    <t>Bạch xà: Se duyên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phim lấy bối cảnh những năm cuối thời Đường, quốc sư vì mối hận 
+với xà tộc nên đã phát động dân chúng bắt rắn. Bạch Xà - Tiểu Bạch 
+trên đường ám sát quốc sư không may mất trí nhớ, được người bắt 
+rắn A Tuyên cứu giúp, A Tuyên chính là tiền kiếp của Hứa Tiên.
+</t>
+  </si>
+  <si>
+    <t>http://www.phimmoi.net/phim/bach-xa-duyen-khoi-8406/</t>
+  </si>
+  <si>
+    <t>Em gái đến từ tương lai</t>
+  </si>
+  <si>
+    <t>Dentsu, Kadokawa, NTT Docomo</t>
+  </si>
+  <si>
+    <t>98 phút</t>
+  </si>
+  <si>
+    <t>Từ một cậu bé bướng bỉnh được cưng chiều nhất gia đình, Kun bỗng 
+thấy vị trí của mình bị lung lay khi em gái cậu – Mirai, ra đời. Đố kỵ 
+xen lẫn tủi thân, cậu bé 4 tuổi cảm thấy tình thương của bố mẹ dành 
+cho mình bị giảm sút và cậu hoàn toàn bị choáng ngợp với việc phải 
+trở thành một người anh.</t>
+  </si>
+  <si>
+    <t>http://www.phimmoi.net/phim/mirai-em-gai-den-tu-tuong-lai-i0-6936/</t>
+  </si>
+  <si>
+    <t>Vị tướng trẻ tuổi</t>
+  </si>
+  <si>
+    <t>TBA Studios, Artikulo Uno Productions, Globe Studios</t>
+  </si>
+  <si>
+    <t>155 phút</t>
+  </si>
+  <si>
+    <t>Goyo: Ang Batang Heneral, còn được gọi đơn giản là Goyo, là một bộ 
+phim sử thi lịch sử Philippines năm 2018 với sự tham gia của Paulo 
+Avelino trong vai "Tướng quân", người đã chết trong Trận chiến Tirad
+ lịch sử trong Chiến tranh Hoa Kỳ Philippines.</t>
+  </si>
+  <si>
+    <t>http://www.phimmoi.net/phim/vi-tuong-tre-tuoi-8284/</t>
+  </si>
+  <si>
+    <t>Bách nhật hồng</t>
+  </si>
+  <si>
+    <t>Asatsu-DK, Bandai Visual Company, 
+Oriental Light and Magic (OLM)</t>
+  </si>
+  <si>
+    <t>Miss Hokusai là một anime lịch sử Nhật Bản được viết và minh họa 
+bởi Hinako Sugiura, kể về câu chuyện của Katsushika Ōi, người làm 
+việc trong bóng tối của người cha Hokusai.</t>
+  </si>
+  <si>
+    <t>http://www.phimmoi.net/phim/bach-nhat-hong-7637/</t>
+  </si>
+  <si>
+    <t>Giải cứu thế giới</t>
+  </si>
+  <si>
+    <t>Netflix, Wonderland Sound and Vision</t>
+  </si>
+  <si>
+    <t>Bốn bạn trẻ gia nhập lực lượng để cứu thế giới khi một cuộc xâm lược
+ của người ngoài hành tinh làm gián đoạn trại hè của họ...</t>
+  </si>
+  <si>
+    <t>http://www.phimmoi.net/phim/giai-cuu-the-gioi-8725/</t>
+  </si>
+  <si>
+    <t>Hổ cánh cụt và biệt đội rừng xanh</t>
+  </si>
+  <si>
+    <t>TAT Productions, Master Films, Vanilla Seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong cuộc phiêu lưu kỳ thú này, nguồn gốc về quá khứ của Igor và 
+Maurice cũng như mối quan hệ phức tạp giữa Mẹ hổ Natasa và 
+Maurice cũng sẽ được hé lộ.
+</t>
+  </si>
+  <si>
+    <t>http://www.phimmoi.net/phim/ho-canh-cut-biet-doi-rung-xanh-5780/</t>
+  </si>
+  <si>
+    <t>Câm lặng</t>
+  </si>
+  <si>
+    <t>Liberty Films UK, Studio Babelsberg</t>
+  </si>
+  <si>
+    <t>126 phút</t>
+  </si>
+  <si>
+    <t>Một người phục vụ đứng lên chống lại băng đảng của thành phố nơi 
+mình sống trong một nỗ lực để tìm hiểu chuyện gì đã xảy ra cho người 
+bạn đời của mình bị mất tích.</t>
+  </si>
+  <si>
+    <t>http://www.phimmoi.net/phim/cam-lang-8469/</t>
+  </si>
+  <si>
+    <t>Bức họa ma quái</t>
+  </si>
+  <si>
+    <t>113 phút</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Một sức mạnh thần bí giúp những hình ảnh trong tranh sống dậy và 
+tàn sát những ai "xấu số" sở hữu chúng. Không những thế, chúng còn 
+ảnh hưởng tới những tác phẩm nghệ thuật khác của Morf tại nhà triển 
+lãm. Đây có thể coi là sự trả thù "ngọt ngào" của nghệ thuật theo đúng 
+nghĩa đen. Liệu tất cả có liên quan đến quá khứ của nhà phê bình này
+hay còn ẩn chứa bí mật nào khác?
+</t>
+  </si>
+  <si>
+    <t>http://www.phimmoi.net/phim/buc-hoa-ma-quai-8309/</t>
+  </si>
+  <si>
+    <t>Tom &amp; Jerry: Willy Wonka và nhà
+ máy chocolate</t>
+  </si>
+  <si>
+    <t>Turner Entertainment, Warner Bros. Animation</t>
+  </si>
+  <si>
+    <t>Tom và Jerry sẽ giúp Charlie Bucket đạt được một chiếc vé Vàng và 
+bí mật đi cùng anh ta vào nhà máy sô cô la của Willy Wonka để ngăn
+chặn một trong những đối thủ của Wonka trộm cắp một viên kẹo đặc 
+biệt gọi là Gobstopper Everlasting.</t>
+  </si>
+  <si>
+    <t>http://www.phimmoi.net/phim/tom-jerry-willy-wonka-va-nha-may-chocolate-7477/</t>
   </si>
 </sst>
 </file>
@@ -1294,16 +1454,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="9" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
@@ -1316,7 +1476,7 @@
     <col min="13" max="13" width="14.140625" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
     <col min="15" max="15" width="13.85546875" customWidth="1"/>
-    <col min="16" max="16" width="59.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="60.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1705,7 +1865,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>78</v>
       </c>
@@ -2489,6 +2649,293 @@
       </c>
       <c r="Q41" s="3" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="3" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="3" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="3" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O44" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="3" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="3" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="3" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O49" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" s="3" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L50" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O50" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M51" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2502,9 +2949,11 @@
     <hyperlink ref="Q28" r:id="rId7"/>
     <hyperlink ref="Q31" r:id="rId8"/>
     <hyperlink ref="Q36" r:id="rId9"/>
+    <hyperlink ref="Q45" r:id="rId10"/>
+    <hyperlink ref="Q46" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/DataFilm.xlsx
+++ b/DataFilm.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HKII NAM 3\LTQLUD2\DA LTUDQL2\LTUDQL2---DACK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD153F6-63BF-470C-938A-92746D0CC0A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="202">
   <si>
     <t>Tên video</t>
   </si>
@@ -847,8 +853,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,6 +916,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -932,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -944,26 +957,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -989,9 +988,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1002,6 +1019,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1050,7 +1070,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1083,9 +1103,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1118,6 +1155,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1293,17 +1347,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="C38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
@@ -1316,14 +1370,15 @@
     <col min="13" max="13" width="14.140625" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
     <col min="15" max="15" width="13.85546875" customWidth="1"/>
-    <col min="16" max="16" width="59.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="30.85546875" style="24" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1365,7 +1420,7 @@
       <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -1373,36 +1428,32 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="K2" s="4"/>
+      <c r="P2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1411,18 +1462,18 @@
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1431,158 +1482,132 @@
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="3" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="N5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="5" t="s">
+      <c r="O5" s="4"/>
+      <c r="P5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="3" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="3" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="J7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="3" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="E8" s="4"/>
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="8" t="s">
+      <c r="J8" s="4"/>
+      <c r="P8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="K9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="5" t="s">
+      <c r="M9" s="4"/>
+      <c r="P9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="3" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1591,24 +1616,20 @@
       <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="5" t="s">
+      <c r="G10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="P10" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1617,73 +1638,63 @@
       <c r="I11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P11" s="5" t="s">
+      <c r="M11" s="4"/>
+      <c r="P11" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="I12" s="4"/>
       <c r="M12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="3" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D13" s="4"/>
       <c r="F13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" s="5" t="s">
+      <c r="G13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="P13" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1692,24 +1703,20 @@
       <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" s="5" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="P14" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1718,201 +1725,161 @@
       <c r="D15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="5" t="s">
+      <c r="E15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="P15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="3" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="E16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P16" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="18" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="3" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="3" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D18" s="4"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="5" t="s">
+      <c r="I18" s="4"/>
+      <c r="P18" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="3" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="L19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
       <c r="O19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="18" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="G20" s="4"/>
       <c r="L20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="5" t="s">
+      <c r="O20" s="4"/>
+      <c r="P20" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="18" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="3" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D21" s="4"/>
       <c r="I21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="5" t="s">
+      <c r="N21" s="4"/>
+      <c r="P21" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1921,65 +1888,47 @@
       <c r="D22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P22" s="5" t="s">
+      <c r="E22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="P22" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="Q22" s="6" t="s">
+      <c r="Q22" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="3" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="N23" s="4"/>
       <c r="O23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="3" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1988,54 +1937,44 @@
       <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F24" s="4"/>
+      <c r="J24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="N24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="5" t="s">
+      <c r="N24" s="4"/>
+      <c r="P24" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="E25" s="4"/>
+      <c r="I25" s="4"/>
       <c r="N25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P25" s="5" t="s">
+      <c r="P25" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="3" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -2045,53 +1984,43 @@
       <c r="L26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P26" s="5" t="s">
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" s="18" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="3" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="E27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
       <c r="O27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="P27" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="Q27" s="18" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="3" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2100,408 +2029,326 @@
       <c r="D28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P28" s="5" t="s">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="P28" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="Q28" s="6" t="s">
+      <c r="Q28" s="17" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="3" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="J29" s="4"/>
       <c r="M29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P29" s="5" t="s">
+      <c r="P29" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="18" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P30" s="22" t="s">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="J30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="P30" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="Q30" s="18" t="s">
+      <c r="Q30" s="19" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="K31" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P31" s="7" t="s">
+      <c r="K31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="13"/>
+      <c r="P31" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="Q31" s="6" t="s">
+      <c r="Q31" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P32" s="8" t="s">
+      <c r="E32" s="13"/>
+      <c r="H32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="13"/>
+      <c r="P32" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="Q32" s="18" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="3" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P33" s="5" t="s">
+      <c r="D33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="Q33" s="18" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="3" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="9" t="s">
         <v>168</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F34" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="M34" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="O34" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P34" s="5" t="s">
+      <c r="F34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="Q34" s="18" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E35" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="N35" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P35" s="5" t="s">
+      <c r="E35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="N35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P35" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="Q35" s="18" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="O36" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P36" s="5" t="s">
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="O36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P36" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="Q36" s="6" t="s">
+      <c r="Q36" s="17" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="9" t="s">
         <v>181</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="M37" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="O37" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P37" s="5" t="s">
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="L37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="Q37" s="18" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="9" t="s">
         <v>185</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="O38" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P38" s="5" t="s">
+      <c r="E38" s="13"/>
+      <c r="H38" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O38" s="13"/>
+      <c r="P38" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="Q38" s="18" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="3" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="8" t="s">
         <v>189</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H39" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="N39" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P39" s="5" t="s">
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="N39" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P39" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="Q39" s="18" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="3" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="8" t="s">
         <v>193</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P40" s="5" t="s">
+      <c r="D40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="P40" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="Q40" s="18" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="9" t="s">
         <v>198</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F41" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="N41" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P41" s="5" t="s">
+      <c r="F41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="N41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P41" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="Q41" s="18" t="s">
         <v>201</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1"/>
-    <hyperlink ref="Q3" r:id="rId2"/>
-    <hyperlink ref="Q6" r:id="rId3"/>
-    <hyperlink ref="Q13" r:id="rId4"/>
-    <hyperlink ref="Q22" r:id="rId5"/>
-    <hyperlink ref="Q25" r:id="rId6"/>
-    <hyperlink ref="Q28" r:id="rId7"/>
-    <hyperlink ref="Q31" r:id="rId8"/>
-    <hyperlink ref="Q36" r:id="rId9"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Q6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="Q28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q31" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Q36" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -2509,7 +2356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2521,7 +2368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/DataFilm.xlsx
+++ b/DataFilm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HKII NAM 3\LTQLUD2\DA LTUDQL2\LTUDQL2---DACK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD153F6-63BF-470C-938A-92746D0CC0A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3FD052-A3C0-4088-A47C-EF65091EA933}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -924,12 +924,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -945,7 +951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1009,6 +1015,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1350,14 +1362,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="K37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
@@ -1367,7 +1379,7 @@
     <col min="9" max="10" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
     <col min="15" max="15" width="13.85546875" customWidth="1"/>
     <col min="16" max="16" width="30.85546875" style="24" customWidth="1"/>
@@ -1713,7 +1725,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="25" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1830,7 +1842,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="25" t="s">
         <v>101</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1875,7 +1887,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>109</v>
       </c>
@@ -1917,7 +1929,7 @@
       <c r="O23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P23" s="21" t="s">
+      <c r="P23" s="26" t="s">
         <v>116</v>
       </c>
       <c r="Q23" s="18" t="s">
@@ -2344,11 +2356,11 @@
     <hyperlink ref="Q3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="Q6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="Q13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="Q22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="Q28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q31" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="Q36" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q25" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="Q28" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q31" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Q36" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>

--- a/DataFilm.xlsx
+++ b/DataFilm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HKII NAM 3\LTQLUD2\DA LTUDQL2\LTUDQL2---DACK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3FD052-A3C0-4088-A47C-EF65091EA933}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1371CD42-28B2-49ED-8E67-81EE8997788F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="273">
   <si>
     <t>Tên video</t>
   </si>
@@ -849,12 +849,225 @@
   <si>
     <t>http://www.phimmoi.net/phim/tieu-thuyet-gia-8439/</t>
   </si>
+  <si>
+    <t>Trailer</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=QXBurZbnFvXew&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fdark.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=QXBurZbnFvXew&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Ffire.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=QXBurZbnFvXew&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252F2.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=QXBurZbnFvXew&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fkorean%2520movie.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=QXBurZbnFvXew&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fcold%2520prusui.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=QXBurZbnFvXew&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fhay%2520de%2520em%2520yeu%2520anh.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=QXBurZbnFvXew&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fbi%2520kiep%2520luyen%2520rong.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=QXBurZbnFvXew&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252F5%2520feet.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fdurante.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fluon%2520luon%2520co%2520the.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fvo%2520anh.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fblame.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fcold%2520prusui.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fdai%2520uy%2520marvel.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fmoment.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fpool.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fdirt.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fgalaxy.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fred.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fdai%2520ca%2520hoa%2520soai%2520ca.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fkhu%2520rung%2520chet%2520choc.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fmonk.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Flizzie.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fmummy.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fsuc%2520manh.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fyour%2520lite.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fcollete.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fdestroyer.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fstar%2520is%2520born.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fbel%2520canto.mp4</t>
+  </si>
+  <si>
+    <t>VIDEO</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Ftinh%2520ha%2520SUP%2520DO.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fho%2520boi%2520tu%2520than.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fnam%2520buoc%2520de%2520yeu.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fke%2520pha%2520huy.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fkhu%2520nghi%2520duong%2520xac%2520song.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fvo%2520anh.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fhay%2520de%2520em%2520yeu%2520anh.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fbi%2520kip%2520luyen%2520rong%25203%2520vung%2520dat%2520bi%2520an.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fgaro%2520cau%2520hon.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fte%2520cong%2520han%2520yeu.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fte%2520cong%2520hang%2520yeu%25202.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fxac%2520uop%2520ai%2520cap.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fluon%2520luon%2520co%2520the.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fao%2520anh.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fconntin.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fchien%2520tranh%2520lanh.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fdai%2520uy%2520marvel.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fme%2520ma%2520than%2520khoc%2520la%2520llorona.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fhoang%2520vu.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Ftu%2520nhan%2520bao%2520thu.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fbong%2520hong%2520sat%2520thu.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fco%2520may%2520thoi%2520gian.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fbao%2520thu.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fdai%2520ca%2520hoa%2520soai%2520ca.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fke%2520hoach%2520tan%2520nhan.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fbao%2520norda.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fdai%2520chien%2520titan%25202%2520tan%2520the.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fsu%2520phan%2520no%2520cua%2520cac%2520vi%2520than.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fxac%2520uop%25202%2520xac%2520uop%2520tro%2520lai.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252FThe%2520last%2520dark.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Ftoi%2520cho%2520doi%2520giay%2520phut%2520em%2520yeu%2520toi.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fblame%2520thanh%2520pho%2520co.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Flac%2520vao%2520khu%2520rung%2520dom%2520dom.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fmo%2520dom%2520dom.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fngoi%2520nha%2520giua%2520rung.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fban%2520nhac%2520tai%2520tieng.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fvi%2520sao%2520vut%2520sang.mp4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Ftieu%2520thuyet%2520gia.mp4</t>
+  </si>
+  <si>
+    <t>http://171.246.39.55:53999/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=mAhz3cTyZ3DKU&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252F1.mp4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,6 +1136,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -951,7 +1193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -998,12 +1240,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1021,6 +1257,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1360,33 +1619,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="5" customWidth="1"/>
+    <col min="3" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" customWidth="1"/>
-    <col min="16" max="16" width="30.85546875" style="24" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="2.85546875" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="22" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="18" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1438,8 +1697,14 @@
       <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
@@ -1454,14 +1719,20 @@
         <v>15</v>
       </c>
       <c r="K2" s="4"/>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -1474,14 +1745,20 @@
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -1494,14 +1771,20 @@
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="3" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -1517,14 +1800,20 @@
         <v>15</v>
       </c>
       <c r="O5" s="4"/>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="3" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
@@ -1539,14 +1828,20 @@
       <c r="L6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="19" t="s">
         <v>28</v>
       </c>
       <c r="Q6" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="3" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
@@ -1561,14 +1856,20 @@
       <c r="J7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="22" t="s">
+      <c r="P7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="Q7" s="27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="3" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
@@ -1583,14 +1884,20 @@
         <v>15</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="P8" s="22" t="s">
+      <c r="P8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="18" t="s">
+      <c r="Q8" s="27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="S8" s="32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="3" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -1608,14 +1915,20 @@
         <v>15</v>
       </c>
       <c r="M9" s="4"/>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Q9" s="18" t="s">
+      <c r="Q9" s="27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="S9" s="32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="3" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>57</v>
       </c>
@@ -1630,14 +1943,20 @@
       </c>
       <c r="G10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="P10" s="21" t="s">
+      <c r="P10" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" s="27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>61</v>
       </c>
@@ -1651,14 +1970,20 @@
         <v>15</v>
       </c>
       <c r="M11" s="4"/>
-      <c r="P11" s="21" t="s">
+      <c r="P11" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="S11" s="32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>65</v>
       </c>
@@ -1672,14 +1997,20 @@
       <c r="M12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="Q12" s="18" t="s">
+      <c r="Q12" s="28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="3" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="3" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>147</v>
       </c>
@@ -1695,14 +2026,17 @@
       </c>
       <c r="G13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="P13" s="21" t="s">
+      <c r="P13" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="Q13" s="17" t="s">
+      <c r="Q13" s="29" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>73</v>
       </c>
@@ -1717,15 +2051,21 @@
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="Q14" s="18" t="s">
+      <c r="Q14" s="27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="R14" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="S14" s="32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1740,14 +2080,20 @@
       <c r="E15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="P15" s="21" t="s">
+      <c r="P15" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="Q15" s="18" t="s">
+      <c r="Q15" s="27" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="3" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="S15" s="32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="3" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>83</v>
       </c>
@@ -1762,14 +2108,20 @@
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P16" s="21" t="s">
+      <c r="P16" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="Q16" s="18" t="s">
+      <c r="Q16" s="27" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="3" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="S16" s="32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="3" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>88</v>
       </c>
@@ -1786,14 +2138,20 @@
       <c r="J17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P17" s="21" t="s">
+      <c r="P17" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="Q17" s="18" t="s">
+      <c r="Q17" s="27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="3" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="S17" s="32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="3" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>92</v>
       </c>
@@ -1809,14 +2167,20 @@
         <v>15</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="P18" s="21" t="s">
+      <c r="P18" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="Q18" s="18" t="s">
+      <c r="Q18" s="27" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="3" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="S18" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="3" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>97</v>
       </c>
@@ -1834,15 +2198,21 @@
       <c r="O19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P19" s="21" t="s">
+      <c r="P19" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Q19" s="18" t="s">
+      <c r="Q19" s="27" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="R19" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="S19" s="32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>101</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1858,14 +2228,20 @@
         <v>15</v>
       </c>
       <c r="O20" s="4"/>
-      <c r="P20" s="21" t="s">
+      <c r="P20" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="Q20" s="18" t="s">
+      <c r="Q20" s="27" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" s="3" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="S20" s="32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="3" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>105</v>
       </c>
@@ -1880,14 +2256,20 @@
         <v>15</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="P21" s="21" t="s">
+      <c r="P21" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="Q21" s="18" t="s">
+      <c r="Q21" s="27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="R21" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="S21" s="32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>109</v>
       </c>
@@ -1903,14 +2285,20 @@
       <c r="E22" s="4"/>
       <c r="I22" s="4"/>
       <c r="N22" s="4"/>
-      <c r="P22" s="21" t="s">
+      <c r="P22" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="Q22" s="17" t="s">
+      <c r="Q22" s="29" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="3" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="S22" s="32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="3" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>113</v>
       </c>
@@ -1929,14 +2317,20 @@
       <c r="O23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P23" s="26" t="s">
+      <c r="P23" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="Q23" s="18" t="s">
+      <c r="Q23" s="27" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="3" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="S23" s="32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="3" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>118</v>
       </c>
@@ -1953,14 +2347,20 @@
       <c r="J24" s="4"/>
       <c r="L24" s="4"/>
       <c r="N24" s="4"/>
-      <c r="P24" s="21" t="s">
+      <c r="P24" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="Q24" s="18" t="s">
+      <c r="Q24" s="27" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="S24" s="32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>123</v>
       </c>
@@ -1975,14 +2375,20 @@
       <c r="N25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P25" s="21" t="s">
+      <c r="P25" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="Q25" s="17" t="s">
+      <c r="Q25" s="29" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="3" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="S25" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="3" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>127</v>
       </c>
@@ -1998,14 +2404,20 @@
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="21" t="s">
+      <c r="P26" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="Q26" s="18" t="s">
+      <c r="Q26" s="27" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="3" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="S26" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="3" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>132</v>
       </c>
@@ -2021,14 +2433,20 @@
       <c r="O27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P27" s="21" t="s">
+      <c r="P27" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="Q27" s="18" t="s">
+      <c r="Q27" s="27" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" s="3" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="S27" s="32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="3" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>137</v>
       </c>
@@ -2045,14 +2463,20 @@
       <c r="G28" s="4"/>
       <c r="K28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="P28" s="21" t="s">
+      <c r="P28" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="Q28" s="17" t="s">
+      <c r="Q28" s="29" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" s="3" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="S28" s="32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="3" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>141</v>
       </c>
@@ -2068,14 +2492,20 @@
       <c r="M29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P29" s="21" t="s">
+      <c r="P29" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="Q29" s="18" t="s">
+      <c r="Q29" s="27" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="S29" s="32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>146</v>
       </c>
@@ -2093,14 +2523,20 @@
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
-      <c r="P30" s="23" t="s">
+      <c r="P30" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="Q30" s="19" t="s">
+      <c r="Q30" s="31" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R30" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="S30" s="32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
         <v>152</v>
       </c>
@@ -2114,14 +2550,20 @@
         <v>15</v>
       </c>
       <c r="L31" s="13"/>
-      <c r="P31" s="24" t="s">
+      <c r="P31" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="Q31" s="17" t="s">
+      <c r="Q31" s="29" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="S31" s="32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>157</v>
       </c>
@@ -2136,14 +2578,20 @@
         <v>15</v>
       </c>
       <c r="K32" s="13"/>
-      <c r="P32" s="22" t="s">
+      <c r="P32" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="Q32" s="18" t="s">
+      <c r="Q32" s="27" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" s="3" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="S32" s="32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="3" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>162</v>
       </c>
@@ -2160,14 +2608,20 @@
       <c r="L33" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="21" t="s">
+      <c r="P33" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="Q33" s="18" t="s">
+      <c r="Q33" s="27" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" s="3" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R33" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="S33" s="32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="3" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>167</v>
       </c>
@@ -2184,14 +2638,20 @@
       <c r="K34" s="13"/>
       <c r="M34" s="13"/>
       <c r="O34" s="13"/>
-      <c r="P34" s="21" t="s">
+      <c r="P34" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="Q34" s="18" t="s">
+      <c r="Q34" s="28" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="S34" s="32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>172</v>
       </c>
@@ -2207,14 +2667,20 @@
       <c r="N35" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P35" s="21" t="s">
+      <c r="P35" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="Q35" s="18" t="s">
+      <c r="Q35" s="27" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="S35" s="32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>177</v>
       </c>
@@ -2230,14 +2696,20 @@
       <c r="O36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P36" s="21" t="s">
+      <c r="P36" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="Q36" s="17" t="s">
+      <c r="Q36" s="29" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="S36" s="32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>180</v>
       </c>
@@ -2254,14 +2726,20 @@
       </c>
       <c r="M37" s="13"/>
       <c r="O37" s="13"/>
-      <c r="P37" s="21" t="s">
+      <c r="P37" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="Q37" s="18" t="s">
+      <c r="Q37" s="27" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="S37" s="32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>184</v>
       </c>
@@ -2276,14 +2754,20 @@
         <v>15</v>
       </c>
       <c r="O38" s="13"/>
-      <c r="P38" s="21" t="s">
+      <c r="P38" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="Q38" s="18" t="s">
+      <c r="Q38" s="30" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" s="3" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="S38" s="32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="3" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>188</v>
       </c>
@@ -2298,14 +2782,20 @@
       <c r="N39" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P39" s="21" t="s">
+      <c r="P39" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="Q39" s="18" t="s">
+      <c r="Q39" s="27" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" s="3" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="S39" s="32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="3" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>192</v>
       </c>
@@ -2321,14 +2811,20 @@
       <c r="E40" s="13"/>
       <c r="H40" s="13"/>
       <c r="J40" s="13"/>
-      <c r="P40" s="21" t="s">
+      <c r="P40" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="Q40" s="18" t="s">
+      <c r="Q40" s="27" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R40" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="S40" s="32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>197</v>
       </c>
@@ -2343,11 +2839,17 @@
       <c r="N41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P41" s="21" t="s">
+      <c r="P41" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="Q41" s="18" t="s">
+      <c r="Q41" s="27" t="s">
         <v>201</v>
+      </c>
+      <c r="R41" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="S41" s="32" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2356,14 +2858,93 @@
     <hyperlink ref="Q3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="Q6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="Q13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="Q25" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="Q28" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q31" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="Q36" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q25" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q28" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="Q31" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q36" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Q22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="R3" r:id="rId10" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=QXBurZbnFvXew&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fdark.mp4" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="R4" r:id="rId11" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=QXBurZbnFvXew&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Ffire.mp4" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="R5" r:id="rId12" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=QXBurZbnFvXew&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252F2.mp4" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="R6" r:id="rId13" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=QXBurZbnFvXew&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fkorean%2520movie.mp4" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="R7" r:id="rId14" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=QXBurZbnFvXew&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fcold%2520prusui.mp4" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="R8" r:id="rId15" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=QXBurZbnFvXew&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fhay%2520de%2520em%2520yeu%2520anh.mp4" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="R9" r:id="rId16" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=QXBurZbnFvXew&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fbi%2520kiep%2520luyen%2520rong.mp4" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="R10" r:id="rId17" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=QXBurZbnFvXew&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252F5%2520feet.mp4" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="R11" r:id="rId18" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fdurante.mp4" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="R12" r:id="rId19" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fdurante.mp4" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="R14" r:id="rId20" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fluon%2520luon%2520co%2520the.mp4" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="R15" r:id="rId21" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fvo%2520anh.mp4" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="R16" r:id="rId22" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fblame.mp4" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="R17" r:id="rId23" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fcold%2520prusui.mp4" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="R18" r:id="rId24" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fdai%2520uy%2520marvel.mp4" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="R19" r:id="rId25" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fmoment.mp4" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="R20" r:id="rId26" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fpool.mp4" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="R21" r:id="rId27" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fdurante.mp4" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="R22" r:id="rId28" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fdirt.mp4" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="R23" r:id="rId29" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fgalaxy.mp4" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="R24" r:id="rId30" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fred.mp4" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="R25" r:id="rId31" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fdai%2520ca%2520hoa%2520soai%2520ca.mp4" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="R26" r:id="rId32" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fkhu%2520rung%2520chet%2520choc.mp4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="R27" r:id="rId33" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fmonk.mp4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="R28" r:id="rId34" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fmonk.mp4" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="R29" r:id="rId35" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Flizzie.mp4" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="R30" r:id="rId36" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fmummy.mp4" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="R31" r:id="rId37" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fsuc%2520manh.mp4" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="R33" r:id="rId38" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fyour%2520lite.mp4" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="R34" r:id="rId39" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fyour%2520lite.mp4" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="R35" r:id="rId40" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fcollete.mp4" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="R36" r:id="rId41" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fdestroyer.mp4" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="R37" r:id="rId42" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fkhu%2520rung%2520chet%2520choc.mp4" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="R38" r:id="rId43" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fdai%2520ca%2520hoa%2520soai%2520ca.mp4" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="R40" r:id="rId44" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fstar%2520is%2520born.mp4" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="R39" r:id="rId45" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fdirt.mp4" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="R41" r:id="rId46" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fbel%2520canto.mp4" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="R32" r:id="rId47" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252Fbel%2520canto.mp4" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="S2" r:id="rId48" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Ftinh%2520ha%2520SUP%2520DO.mp4" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="S3" r:id="rId49" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fho%2520boi%2520tu%2520than.mp4" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="S4" r:id="rId50" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fnam%2520buoc%2520de%2520yeu.mp4" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="S5" r:id="rId51" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fke%2520pha%2520huy.mp4" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="S6" r:id="rId52" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fkhu%2520nghi%2520duong%2520xac%2520song.mp4" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="S7" r:id="rId53" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fvo%2520anh.mp4" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="S8" r:id="rId54" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fhay%2520de%2520em%2520yeu%2520anh.mp4" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="S9" r:id="rId55" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fbi%2520kip%2520luyen%2520rong%25203%2520vung%2520dat%2520bi%2520an.mp4" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="S10" r:id="rId56" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fgaro%2520cau%2520hon.mp4" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="S11" r:id="rId57" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fte%2520cong%2520han%2520yeu.mp4" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="S12" r:id="rId58" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fte%2520cong%2520hang%2520yeu%25202.mp4" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="S13" r:id="rId59" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fxac%2520uop%2520ai%2520cap.mp4" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="S14" r:id="rId60" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fluon%2520luon%2520co%2520the.mp4" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="S15" r:id="rId61" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fao%2520anh.mp4" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="S16" r:id="rId62" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fconntin.mp4" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="S17" r:id="rId63" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fchien%2520tranh%2520lanh.mp4" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="S18" r:id="rId64" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fdai%2520uy%2520marvel.mp4" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="S19" r:id="rId65" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fme%2520ma%2520than%2520khoc%2520la%2520llorona.mp4" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="S20" r:id="rId66" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fhoang%2520vu.mp4" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="S21" r:id="rId67" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Ftu%2520nhan%2520bao%2520thu.mp4" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="S22" r:id="rId68" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fbong%2520hong%2520sat%2520thu.mp4" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="S23" r:id="rId69" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fco%2520may%2520thoi%2520gian.mp4" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="S24" r:id="rId70" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fbao%2520thu.mp4" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="S25" r:id="rId71" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fdai%2520ca%2520hoa%2520soai%2520ca.mp4" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="S26" r:id="rId72" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fke%2520hoach%2520tan%2520nhan.mp4" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="S27" r:id="rId73" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fbao%2520norda.mp4" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="S28" r:id="rId74" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fdai%2520chien%2520titan%25202%2520tan%2520the.mp4" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="S29" r:id="rId75" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fsu%2520phan%2520no%2520cua%2520cac%2520vi%2520than.mp4" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="S30" r:id="rId76" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fxac%2520uop%25202%2520xac%2520uop%2520tro%2520lai.mp4" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="S31" r:id="rId77" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252FThe%2520last%2520dark.mp4" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="S32" r:id="rId78" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Ftoi%2520cho%2520doi%2520giay%2520phut%2520em%2520yeu%2520toi.mp4" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="S33" r:id="rId79" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fblame%2520thanh%2520pho%2520co.mp4" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="S34" r:id="rId80" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Flac%2520vao%2520khu%2520rung%2520dom%2520dom.mp4" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="S35" r:id="rId81" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fmo%2520dom%2520dom.mp4" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="S36" r:id="rId82" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fngoi%2520nha%2520giua%2520rung.mp4" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="S37" r:id="rId83" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Flac%2520vao%2520khu%2520rung%2520dom%2520dom.mp4" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="S38" r:id="rId84" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fkhu%2520nghi%2520duong%2520xac%2520song.mp4" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="S39" r:id="rId85" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fban%2520nhac%2520tai%2520tieng.mp4" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="S40" r:id="rId86" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Fvi%2520sao%2520vut%2520sang.mp4" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="S41" r:id="rId87" display="http://192.168.1.114:5000/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=kBwpqVR5wtIX6&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FVideo%252Ftieu%2520thuyet%2520gia.mp4" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="R2" r:id="rId88" display="http://171.246.39.55:53999/?launchApp=SYNO.VideoController2.Application&amp;SynoToken=mAhz3cTyZ3DKU&amp;launchParam=player_id%3Dstreaming%26browse_type%3Dfilevideo%26video_type%3Dfilevideo%26is_drive%3Dfalse%26path%3D%252Fvolume1%252FPhimproject%252FTrailer%252F1.mp4" xr:uid="{98027B6A-AED1-42C2-83CD-6C9081EB55EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId89"/>
 </worksheet>
 </file>
 
